--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9E09D-A84D-4FBB-A54A-13FC5CDFC22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CB390-D031-4349-9BA7-D8B1A576C977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,17 @@
   </si>
   <si>
     <t>外观电检取消完成页对模组号输入的限制，新增各工段模组信息查看和编辑页</t>
+  </si>
+  <si>
+    <t>mc看板 表格增加筛选和排序</t>
+  </si>
+  <si>
+    <t>外观电检增加选择读取模组号方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选功能完成，小样增加筛选，已经解决重复查询条件不更新问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -697,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -994,7 +1005,9 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C15" s="8">
         <v>43813</v>
       </c>
@@ -1009,7 +1022,9 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="8">
         <v>43814</v>
       </c>
@@ -1025,7 +1040,9 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="8">
         <v>43815</v>
       </c>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CB390-D031-4349-9BA7-D8B1A576C977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5E634-6093-4A31-8000-4C673C48D0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,13 @@
   </si>
   <si>
     <t>筛选功能完成，小样增加筛选，已经解决重复查询条件不更新问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观电检增加选择列表，解决移动端选择框难输入问题</t>
+  </si>
+  <si>
+    <t>解决移动端单选和多选不弹出虚拟键盘问题，应用在需要移动端扫码的所有页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,8 +715,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1065,9 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="8">
         <v>43816</v>
       </c>
@@ -1070,11 +1079,13 @@
       <c r="G18" s="7"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5E634-6093-4A31-8000-4C673C48D0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418279F2-1740-4711-89B9-F3207DE520F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,12 @@
   <si>
     <t>解决移动端单选和多选不弹出虚拟键盘问题，应用在需要移动端扫码的所有页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量老化开始和结束，重新制作数据表格，表头固定</t>
+  </si>
+  <si>
+    <t>订单转异常新方法</t>
   </si>
 </sst>
 </file>
@@ -715,8 +721,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1067,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1113,7 +1119,9 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
@@ -1127,7 +1135,9 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418279F2-1740-4711-89B9-F3207DE520F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA79C54-3DDE-4310-8A63-186077B5130C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>四楼温湿度和汇总增加TVOC显示，新增TVOC图表页</t>
-  </si>
-  <si>
-    <t>锡膏入冰柜页面逻辑和显示问题修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一楼打磨车间和汇总增加噪声显示，新增噪声图表页</t>
@@ -109,34 +105,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>外观电检取消完成页对模组号输入的限制，新增各工段模组信息查看和编辑页</t>
+  </si>
+  <si>
+    <t>解决移动端单选和多选不弹出虚拟键盘问题，应用在需要移动端扫码的所有页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量老化开始和结束，重新制作数据表格，表头固定</t>
+  </si>
+  <si>
+    <t>订单转异常新方法</t>
+  </si>
+  <si>
     <t>产值看板订单详情页增加显示条码标签图功能</t>
-  </si>
-  <si>
-    <t>外观电检取消完成页对模组号输入的限制，新增各工段模组信息查看和编辑页</t>
-  </si>
-  <si>
-    <t>mc看板 表格增加筛选和排序</t>
-  </si>
-  <si>
-    <t>外观电检增加选择读取模组号方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选功能完成，小样增加筛选，已经解决重复查询条件不更新问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观电检增加选择列表，解决移动端选择框难输入问题</t>
-  </si>
-  <si>
-    <t>解决移动端单选和多选不弹出虚拟键盘问题，应用在需要移动端扫码的所有页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量老化开始和结束，重新制作数据表格，表头固定</t>
-  </si>
-  <si>
-    <t>订单转异常新方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观电检增加选择读取模组号方向，筛选功能完成，小样增加筛选，已经解决重复查询条件不更新问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc看板 表格增加筛选和排序
+外观电检增加选择列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT IC面和灯面看板功能完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -212,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -244,6 +240,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -251,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,6 +302,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,8 +731,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,25 +899,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8">
         <v>43806</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>43811</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>43811</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8">
         <v>43801</v>
@@ -924,75 +938,91 @@
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8">
-        <v>43808</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>43810</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43819</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43819</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8">
         <v>43809</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>43810</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43810</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="252" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8">
-        <v>43810</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>43809</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43809</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>43809</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8">
         <v>43811</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>43811</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>43811</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="11"/>
     </row>
@@ -1001,34 +1031,42 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>43812</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>43813</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="8">
+        <v>43813</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>43813</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8">
+        <v>43815</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>43813</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
@@ -1036,34 +1074,42 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8">
         <v>43814</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8">
+        <v>43815</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="8">
+        <v>43815</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="8">
-        <v>43815</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>43810</v>
+      </c>
+      <c r="D17" s="8">
+        <v>43818</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
+        <v>43818</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="11"/>
     </row>
@@ -1071,17 +1117,21 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="8">
         <v>43816</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>43816</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="8">
+        <v>43816</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="13"/>
     </row>
@@ -1090,9 +1140,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43815</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
         <v>9</v>
@@ -1105,7 +1157,7 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
@@ -1119,9 +1171,6 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
@@ -1135,9 +1184,7 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA79C54-3DDE-4310-8A63-186077B5130C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB891607-7A53-4E82-A44C-06E40ADD41FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,12 +134,248 @@
     <t>SMT IC面和灯面看板功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、产值看板订单移动端选择难问题已改，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、条码信息查询页出库状态不对问题已修改，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、模组号信息查看页表格增加排序功能，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、入库方法前端点了开始后会进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态无法重复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、订单模组概况增加包装、入库、出库信息已增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、条码信息查询增加外箱标签图片查看方法已增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SMT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">看板管理，显示和修改功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为可以统一控制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +433,26 @@
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -260,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,10 +555,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -732,7 +993,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1153,11 +1414,13 @@
       <c r="G19" s="7"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
@@ -1170,6 +1433,9 @@
     <row r="21" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB891607-7A53-4E82-A44C-06E40ADD41FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4905A-DEEF-436C-95A0-7A0303B703AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,32 @@
       </rPr>
       <t>改为可以统一控制</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、生产管控排序逻辑修改
+4、去除前端删除模组规则方法，修改模组号页面增加批量修改</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外箱确认前增加检查条码是否重复，模组号是否重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +479,13 @@
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -558,11 +591,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,16 +1041,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1430,11 +1463,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="8"/>
@@ -1450,7 +1483,9 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4905A-DEEF-436C-95A0-7A0303B703AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558FD5F-73C5-4689-862B-773068AF70E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,38 @@
   </si>
   <si>
     <t>外箱确认前增加检查条码是否重复，模组号是否重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>smt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产线信息录入重做完成</t>
+    </r>
+  </si>
+  <si>
+    <t>条码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、SMT看板数据格式改变，可以切换全屏状态，
+2、SMT产线历史信息增加单板点数显示，
+3、SMT产线信息录入时间选择器改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、装磁吸安装板由编辑功能改为上传功能
+2、平台查找由多选改为单选模糊
+3、工序产能编辑时颜色加深
+4、取消附表返回按钮，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -594,15 +626,353 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1023,10 +1393,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,16 +1411,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1494,6 +1864,70 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
       <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1501,17 +1935,173 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G14 G16:G22">
-    <cfRule type="cellIs" dxfId="10" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
       <formula>"待改进"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="81" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -1525,7 +2115,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -1540,10 +2130,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,完成待确认,确认完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G26" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"进行中,待改进,完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558FD5F-73C5-4689-862B-773068AF70E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33BB7E-BAA6-48C0-8895-ED0E0D4C2F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,16 +416,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、SMT看板数据格式改变，可以切换全屏状态，
-2、SMT产线历史信息增加单板点数显示，
-3、SMT产线信息录入时间选择器改动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、装磁吸安装板由编辑功能改为上传功能
 2、平台查找由多选改为单选模糊
 3、工序产能编辑时颜色加深
 4、取消附表返回按钮，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、SMT看板数据格式改变，可以切换全屏状态，
+2、SMT产线历史信息增加单板点数显示，
+3、SMT产线信息录入时间选择器改动，功能按使用者习惯改动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,11 +629,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1411,16 +1411,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1885,8 +1885,8 @@
       <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>33</v>
+      <c r="B24" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1901,8 +1901,8 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>34</v>
+      <c r="B25" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33BB7E-BAA6-48C0-8895-ED0E0D4C2F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F001D-6BBA-4E4E-8BA5-0B12F180226F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>完成待确认</t>
   </si>
   <si>
@@ -112,12 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批量老化开始和结束，重新制作数据表格，表头固定</t>
-  </si>
-  <si>
-    <t>订单转异常新方法</t>
-  </si>
-  <si>
     <t>产值看板订单详情页增加显示条码标签图功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,11 +133,11 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>、产值看板订单移动端选择难问题已改，</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -156,18 +147,56 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、条码信息查询页出库状态不对问题已修改，</t>
+      <t>SMT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">看板管理，显示和修改功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为可以统一控制</t>
     </r>
     <r>
       <rPr>
@@ -184,205 +213,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、模组号信息查看页表格增加排序功能，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、入库方法前端点了开始后会进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>loading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态无法重复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、订单模组概况增加包装、入库、出库信息已增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、条码信息查询增加外箱标签图片查看方法已增加</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SMT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">看板管理，显示和修改功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、打印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="3"/>
-      </rPr>
-      <t>ip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>改为可以统一控制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
@@ -394,25 +224,6 @@
   </si>
   <si>
     <t>外箱确认前增加检查条码是否重复，模组号是否重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>smt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产线信息录入重做完成</t>
-    </r>
-  </si>
-  <si>
-    <t>条码规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,9 +234,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、SMT看板数据格式改变，可以切换全屏状态，
+    <t>批量老化开始和结束，重新制作数据表格，表头固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单转异常采用新方法替换(旧方法每一个工段对应一个方法，现在只有一个方法)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认完成</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、产值看板订单移动端选择难问题已改，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、条码信息查询页出库状态不对问题已修改，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、模组号信息查看页表格增加排序功能，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、入库方法前端点了开始后会进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态无法重复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、订单模组概况增加包装、入库、出库信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、条码信息查询增加外箱标签图片查看方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>smt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产线信息录入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重做完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、SMT看板数据格式改变，可以切换全屏状态，包括页面取消菜单的全屏和浏览器的全屏切换
 2、SMT产线历史信息增加单板点数显示，
 3、SMT产线信息录入时间选择器改动，功能按使用者习惯改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码模组号规则生产页已完成(打印功能尚未测试，打印机被借走了)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8">
         <v>43801</v>
@@ -1462,7 +1485,7 @@
         <v>43801</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8">
         <v>43801</v>
@@ -1475,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8">
         <v>43802</v>
@@ -1484,7 +1507,7 @@
         <v>43802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8">
         <v>43802</v>
@@ -1497,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>43803</v>
@@ -1506,7 +1529,7 @@
         <v>43803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8">
         <v>43803</v>
@@ -1519,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
         <v>43803</v>
@@ -1528,7 +1551,7 @@
         <v>43804</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8">
         <v>43804</v>
@@ -1541,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8">
         <v>43803</v>
@@ -1550,7 +1573,7 @@
         <v>43804</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8">
         <v>43804</v>
@@ -1563,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8">
         <v>43806</v>
@@ -1572,7 +1595,7 @@
         <v>43811</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="8">
         <v>43811</v>
@@ -1585,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8">
         <v>43801</v>
@@ -1594,7 +1617,7 @@
         <v>43805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8">
         <v>43805</v>
@@ -1602,12 +1625,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8">
         <v>43810</v>
@@ -1616,7 +1639,7 @@
         <v>43819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8">
         <v>43819</v>
@@ -1624,12 +1647,12 @@
       <c r="G10" s="7"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8">
         <v>43809</v>
@@ -1638,7 +1661,7 @@
         <v>43810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="8">
         <v>43810</v>
@@ -1646,12 +1669,12 @@
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8">
         <v>43809</v>
@@ -1660,7 +1683,7 @@
         <v>43809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="8">
         <v>43809</v>
@@ -1673,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8">
         <v>43811</v>
@@ -1682,7 +1705,7 @@
         <v>43811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="8">
         <v>43811</v>
@@ -1695,7 +1718,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8">
         <v>43812</v>
@@ -1704,7 +1727,7 @@
         <v>43813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="8">
         <v>43813</v>
@@ -1717,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8">
         <v>43813</v>
@@ -1726,19 +1749,19 @@
         <v>43815</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="8">
         <v>43813</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8">
         <v>43814</v>
@@ -1747,7 +1770,7 @@
         <v>43815</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="8">
         <v>43815</v>
@@ -1755,12 +1778,12 @@
       <c r="G16" s="7"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8">
         <v>43810</v>
@@ -1769,7 +1792,7 @@
         <v>43818</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="8">
         <v>43818</v>
@@ -1782,7 +1805,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C18" s="8">
         <v>43816</v>
@@ -1791,7 +1814,7 @@
         <v>43816</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="8">
         <v>43816</v>
@@ -1799,21 +1822,25 @@
       <c r="G18" s="7"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8">
         <v>43815</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8">
+        <v>43815</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="8">
+        <v>43815</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="11"/>
     </row>
@@ -1822,14 +1849,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43817</v>
+      </c>
+      <c r="D20" s="8">
+        <v>43817</v>
+      </c>
       <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>43817</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="10"/>
     </row>
@@ -1838,30 +1871,42 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43818</v>
+      </c>
+      <c r="D21" s="8">
+        <v>43818</v>
+      </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>43818</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43818</v>
+      </c>
+      <c r="D22" s="8">
+        <v>43819</v>
+      </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>43819</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="10"/>
     </row>
@@ -1870,30 +1915,42 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="8">
+        <v>43819</v>
+      </c>
+      <c r="D23" s="8">
+        <v>43823</v>
+      </c>
       <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>43825</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="C24" s="8">
+        <v>43819</v>
+      </c>
+      <c r="D24" s="8">
+        <v>43822</v>
+      </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>43822</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="10"/>
     </row>
@@ -1902,14 +1959,20 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="8">
+        <v>43822</v>
+      </c>
+      <c r="D25" s="8">
+        <v>43824</v>
+      </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>43826</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="10"/>
     </row>
@@ -1918,14 +1981,20 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C26" s="8">
+        <v>43823</v>
+      </c>
+      <c r="D26" s="8">
+        <v>43824</v>
+      </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>43824</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="10"/>
     </row>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F001D-6BBA-4E4E-8BA5-0B12F180226F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC8546-0CBD-4152-8014-777E57A403AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,10 @@
   </si>
   <si>
     <t>条码模组号规则生产页已完成(打印功能尚未测试，打印机被借走了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序产能总表行数据增加编辑和删除功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +667,90 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1416,10 +1503,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1998,23 +2085,84 @@
       <c r="G26" s="7"/>
       <c r="H26" s="10"/>
     </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="8">
+        <v>43825</v>
+      </c>
+      <c r="D27" s="8">
+        <v>43828</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="8">
+        <v>43826</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G14 G16:G22">
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="91" operator="equal">
       <formula>"待改进"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="92" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2028,7 +2176,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2042,7 +2190,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24">
     <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2053,7 +2201,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2067,7 +2215,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2081,7 +2229,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2092,7 +2240,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2106,7 +2254,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2120,7 +2268,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2131,7 +2279,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2145,7 +2293,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2159,7 +2307,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2170,7 +2318,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2184,7 +2332,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2199,10 +2347,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,完成待确认,确认完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G26" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"进行中,待改进,完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-12郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC8546-0CBD-4152-8014-777E57A403AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E1C3E9-4933-4E16-9816-15161EEEB402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,10 @@
   </si>
   <si>
     <t>工序产能总表行数据增加编辑和删除功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序产能首页增加审核/批准文件的状态列表，方便查阅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +671,90 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1503,10 +1590,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2107,23 +2194,84 @@
       <c r="G27" s="7"/>
       <c r="H27" s="10"/>
     </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="8">
+        <v>43827</v>
+      </c>
+      <c r="D28" s="8">
+        <v>43827</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8">
+        <v>43827</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G14 G16:G22">
-    <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="101" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="102" operator="equal">
       <formula>"待改进"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="103" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2137,7 +2285,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2151,7 +2299,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24">
     <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2162,7 +2310,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2176,7 +2324,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2190,7 +2338,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2201,7 +2349,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2215,7 +2363,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2229,7 +2377,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2240,7 +2388,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2254,7 +2402,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2268,7 +2416,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2279,7 +2427,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2293,7 +2441,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2307,7 +2455,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2318,7 +2466,7 @@
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2332,7 +2480,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -2347,10 +2495,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,完成待确认,确认完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"进行中,待改进,完成"</formula1>
     </dataValidation>
   </dataValidations>
